--- a/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.LongText.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/TreatAsHtmlTests.LongText.verified.xlsx
@@ -71,13 +71,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -474,11 +471,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="83.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="1" width="84.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" customHeight="1">
+    <row r="1" spans="1:2" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,11 +483,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13" customHeight="1">
+    <row r="2" spans="1:2" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
